--- a/TradingModel_TotalEachProfitHistory.xlsx
+++ b/TradingModel_TotalEachProfitHistory.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,41 @@
           <t>ProfitMoney</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PositionSize_x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Price_x</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EachCost_x</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PositionSize_y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Price_y</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EachCost_y</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -472,6 +507,13 @@
       <c r="D2" t="n">
         <v>-399</v>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -486,6 +528,13 @@
       <c r="D3" t="n">
         <v>-109.1999999999998</v>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -500,6 +549,13 @@
       <c r="D4" t="n">
         <v>-420</v>
       </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -514,6 +570,34 @@
       <c r="D5" t="n">
         <v>-702</v>
       </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3504</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-258</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TradingModel_TotalEachProfitHistory.xlsx
+++ b/TradingModel_TotalEachProfitHistory.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,20 @@
         <v>-702</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3504</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TradingModel_TotalEachProfitHistory.xlsx
+++ b/TradingModel_TotalEachProfitHistory.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,48 @@
         <v>-258</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1711</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D7" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3033</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-243</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3189</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TradingModel_TotalEachProfitHistory.xlsx
+++ b/TradingModel_TotalEachProfitHistory.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,41 @@
           <t>ProfitMoney</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PositionSize_x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Price_x</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EachCost_x</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PositionSize_y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Price_y</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EachCost_y</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -472,6 +507,13 @@
       <c r="D2" t="n">
         <v>-399</v>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -486,6 +528,13 @@
       <c r="D3" t="n">
         <v>-109.1999999999998</v>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -500,6 +549,13 @@
       <c r="D4" t="n">
         <v>-420</v>
       </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -514,6 +570,13 @@
       <c r="D5" t="n">
         <v>-702</v>
       </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -528,6 +591,13 @@
       <c r="D6" t="n">
         <v>-258</v>
       </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -542,6 +612,13 @@
       <c r="D7" t="n">
         <v>187</v>
       </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -556,6 +633,13 @@
       <c r="D8" t="n">
         <v>-243</v>
       </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -570,6 +654,13 @@
       <c r="D9" t="n">
         <v>297</v>
       </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TradingModel_TotalEachProfitHistory.xlsx
+++ b/TradingModel_TotalEachProfitHistory.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,6 +662,69 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44517</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2314</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-136.5</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44517</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8289</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-80</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44517</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6271</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-110</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TradingModel_TotalEachProfitHistory.xlsx
+++ b/TradingModel_TotalEachProfitHistory.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,6 +725,153 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44519</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3122</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-141</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44519</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3221</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-21.34999999999991</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44519</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6282</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-387.5</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44519</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6196</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-245</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44519</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3035</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>432</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44519</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6411</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1105</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44519</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3141</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1093.5</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TradingModel_TotalEachProfitHistory.xlsx
+++ b/TradingModel_TotalEachProfitHistory.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,6 +872,27 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44523</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2436</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D20" t="n">
+        <v>40</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TradingModel_TotalEachProfitHistory.xlsx
+++ b/TradingModel_TotalEachProfitHistory.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,6 +893,216 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2340</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>290.6999999999998</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6104</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>144</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6138</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>765</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3016</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D24" t="n">
+        <v>21</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8069</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D25" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8289</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D26" t="n">
+        <v>101.2499999999995</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1712</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D27" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3588</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-87.5</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5351</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-403.2000000000007</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2484</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-349.3500000000004</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
